--- a/data/outputs/management/41.xlsx
+++ b/data/outputs/management/41.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ113"/>
+  <dimension ref="A1:BR113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -919,6 +924,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1122,6 +1128,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1321,6 +1328,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1532,6 +1540,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1731,6 +1740,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1942,6 +1952,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2137,6 +2148,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2336,6 +2348,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2539,6 +2552,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2742,6 +2756,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2941,6 +2956,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3148,6 +3164,11 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>4469427</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3363,6 +3384,11 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>4578488</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3562,6 +3588,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3769,6 +3796,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3976,6 +4004,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4183,6 +4212,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4390,6 +4420,11 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>5612930</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4605,6 +4640,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4820,6 +4856,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5019,6 +5056,11 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>10283014</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5234,6 +5276,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5433,6 +5476,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5516,7 +5560,7 @@
       <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr">
         <is>
-          <t> [25-8321]</t>
+          <t>[25-8321]</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
@@ -5640,6 +5684,11 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr">
+        <is>
+          <t>4348769</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5839,6 +5888,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6046,6 +6096,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6253,6 +6304,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6460,6 +6512,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6667,6 +6720,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6878,6 +6932,11 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr">
+        <is>
+          <t>4459358</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7085,6 +7144,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7296,6 +7356,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7515,6 +7576,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7714,6 +7776,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7917,6 +7980,11 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr">
+        <is>
+          <t>27553304</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8120,6 +8188,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8323,6 +8392,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8526,6 +8596,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8729,6 +8800,11 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr">
+        <is>
+          <t>15672296</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8936,6 +9012,11 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr">
+        <is>
+          <t>4060060</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9147,6 +9228,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9354,6 +9436,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9561,6 +9644,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9772,6 +9856,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9979,6 +10064,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10186,6 +10272,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10397,6 +10484,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10608,6 +10696,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10819,6 +10908,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11018,6 +11108,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11217,6 +11308,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11420,6 +11512,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11631,6 +11724,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11846,6 +11940,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12053,6 +12148,11 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr">
+        <is>
+          <t>30164179</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12268,6 +12368,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12475,6 +12576,11 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr">
+        <is>
+          <t>23461698</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12678,6 +12784,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12893,6 +13000,11 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr">
+        <is>
+          <t>4701170</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13092,6 +13204,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13291,6 +13404,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13510,6 +13624,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13713,6 +13828,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13920,6 +14036,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14131,6 +14248,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14330,6 +14448,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14541,6 +14660,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14752,6 +14872,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14967,6 +15088,11 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr">
+        <is>
+          <t>2923991</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15174,6 +15300,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15381,6 +15508,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15580,6 +15708,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15779,6 +15908,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -15982,6 +16112,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16189,6 +16320,11 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr">
+        <is>
+          <t>32561588</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16388,6 +16524,11 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr">
+        <is>
+          <t>2921847</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16595,6 +16736,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -16802,6 +16944,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17009,6 +17152,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17208,6 +17352,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17407,6 +17552,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17610,6 +17756,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -17809,6 +17956,7 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18016,6 +18164,7 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18215,6 +18364,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18414,6 +18564,7 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18621,6 +18772,7 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -18828,6 +18980,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19031,6 +19184,7 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19238,6 +19392,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19441,6 +19596,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -19640,6 +19796,7 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -19847,6 +20004,7 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20054,6 +20212,7 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20261,6 +20420,7 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20472,6 +20632,7 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -20683,6 +20844,7 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -20894,6 +21056,7 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21101,6 +21264,7 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21300,6 +21464,7 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -21507,6 +21672,7 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -21706,6 +21872,7 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -21921,6 +22088,11 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr">
+        <is>
+          <t>9906502</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22128,6 +22300,7 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -22343,6 +22516,7 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -22546,6 +22720,7 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -22753,6 +22928,7 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -22960,6 +23136,11 @@
         </is>
       </c>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr">
+        <is>
+          <t>3020107</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23167,6 +23348,7 @@
         </is>
       </c>
       <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -23366,6 +23548,7 @@
         </is>
       </c>
       <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -23569,6 +23752,7 @@
         </is>
       </c>
       <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -23768,6 +23952,7 @@
         </is>
       </c>
       <c r="BQ113" t="inlineStr"/>
+      <c r="BR113" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
